--- a/ELE_Simple/EBGN645_Data_Elmo.xlsx
+++ b/ELE_Simple/EBGN645_Data_Elmo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/EBGN645/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/GitHub/EBGN645_Fall24/ELE_Simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CFEFA2-4D7B-724E-BDF0-7D7F4662F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8CF10A-EC8B-7B44-B69A-3C866DF8D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16860" xr2:uid="{60E5E42D-0B89-EF49-A968-AC91B134534C}"/>
+    <workbookView xWindow="10480" yWindow="1640" windowWidth="30240" windowHeight="16860" xr2:uid="{60E5E42D-0B89-EF49-A968-AC91B134534C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L25"/>
+      <selection activeCell="K1" sqref="K1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H25" ca="1" si="0">RANDBETWEEN(1,100)/100</f>
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -541,7 +541,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62</v>
+        <v>0.81</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -597,7 +597,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84</v>
+        <v>0.11</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -688,7 +688,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="J13">
         <v>12</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.77</v>
       </c>
       <c r="J14">
         <v>13</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="J15">
         <v>14</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -821,7 +821,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="J20">
         <v>19</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="J22">
         <v>21</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="J23">
         <v>22</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
       <c r="J24">
         <v>23</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="J25">
         <v>24</v>
